--- a/spliced/struggle/2023-03-25_18-16-13/data_selected.xlsx
+++ b/spliced/struggle/2023-03-25_18-16-13/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-1.463741660118103</v>
+        <v>4.229360163211825</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.567769646644592</v>
+        <v>-4.647700071334836</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.7349072918295859</v>
+        <v>-1.350979804992678</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.022754730656743</v>
+        <v>1.217607140541077</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0641408488154411</v>
+        <v>-0.0294742472469806</v>
       </c>
       <c r="H2" t="n">
-        <v>0.012980886735022</v>
+        <v>-0.807563841342926</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.227857589721681</v>
+        <v>4.624738931655887</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.45130252838135</v>
+        <v>-3.006192684173583</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.6229552030563402</v>
+        <v>-2.288825809955597</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1922698318958282</v>
+        <v>0.5273294448852539</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3217732608318329</v>
+        <v>-6.853602409362793</v>
       </c>
       <c r="H3" t="n">
-        <v>0.55069500207901</v>
+        <v>0.554818332195282</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-2.557104468345643</v>
+        <v>-6.357042789459214</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.735224962234499</v>
+        <v>-8.575422286987301</v>
       </c>
       <c r="E4" t="n">
-        <v>-4.945761188864711</v>
+        <v>0.2564473152160626</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2170098721981048</v>
+        <v>-2.067320823669434</v>
       </c>
       <c r="G4" t="n">
-        <v>1.054353356361389</v>
+        <v>-2.543490171432495</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6004805564880371</v>
+        <v>-1.371545195579529</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.07694971561431618</v>
+        <v>0.5462948679924189</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.776806116104124</v>
+        <v>-6.825089752674098</v>
       </c>
       <c r="E5" t="n">
-        <v>-5.112441301345825</v>
+        <v>-0.5449948012828849</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3987422883510589</v>
+        <v>-1.386664152145386</v>
       </c>
       <c r="G5" t="n">
-        <v>2.450333118438721</v>
+        <v>-2.159103155136108</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.4502076804637909</v>
+        <v>-0.2104430794715881</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1.008981227874761</v>
+        <v>0.9978208541870109</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.772850394248962</v>
+        <v>-3.706368923187252</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.162768602371206</v>
+        <v>-1.51154860854149</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5177083015441895</v>
+        <v>-0.4366159439086914</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3733913898468017</v>
+        <v>-2.386039733886719</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.041053533554077</v>
+        <v>0.6339253783226013</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.495481491088865</v>
+        <v>0.2441467046737658</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.245253562927249</v>
+        <v>-3.069634318351747</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.038550376892101</v>
+        <v>-2.925750926136973</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3608686327934265</v>
+        <v>0.7061602473258972</v>
       </c>
       <c r="G7" t="n">
-        <v>2.603813171386719</v>
+        <v>1.022435665130615</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.005331516265869</v>
+        <v>0.9382890462875366</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.7850135862827323</v>
+        <v>1.612907171249393</v>
       </c>
       <c r="D8" t="n">
-        <v>-5.086958646774292</v>
+        <v>-4.853008508682255</v>
       </c>
       <c r="E8" t="n">
-        <v>-3.590162277221678</v>
+        <v>-1.383459806442257</v>
       </c>
       <c r="F8" t="n">
-        <v>3.672369241714478</v>
+        <v>-1.432479023933411</v>
       </c>
       <c r="G8" t="n">
-        <v>5.648518085479736</v>
+        <v>0.08170322328805921</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6539312601089478</v>
+        <v>1.352913856506348</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4.229360163211825</v>
+        <v>-1.189411103725463</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.647700071334836</v>
+        <v>-6.66196793317795</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.350979804992678</v>
+        <v>2.149218022823342</v>
       </c>
       <c r="F9" t="n">
-        <v>1.217607140541077</v>
+        <v>-4.308279991149902</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0294742472469806</v>
+        <v>0.7483099102973938</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.807563841342926</v>
+        <v>-0.4677700698375702</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.624738931655887</v>
+        <v>-6.306459784507723</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.006192684173583</v>
+        <v>-6.704558491706845</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.288825809955597</v>
+        <v>4.024554014205929</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5273294448852539</v>
+        <v>-1.983479499816894</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.853602409362793</v>
+        <v>0.1204931661486625</v>
       </c>
       <c r="H10" t="n">
-        <v>0.554818332195282</v>
+        <v>-1.231657028198242</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-6.357042789459214</v>
+        <v>1.663261890411397</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.575422286987301</v>
+        <v>-5.016231019049863</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2564473152160626</v>
+        <v>3.32933139801026</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.067320823669434</v>
+        <v>-0.7951938509941101</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.543490171432495</v>
+        <v>-1.842216849327088</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.371545195579529</v>
+        <v>-2.083966732025146</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.5462948679924189</v>
+        <v>6.837078571319559</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.825089752674098</v>
+        <v>0.09169325232505482</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5449948012828849</v>
+        <v>5.010437965393057</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.386664152145386</v>
+        <v>-0.8384125232696533</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.159103155136108</v>
+        <v>-2.687654256820679</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.2104430794715881</v>
+        <v>-1.451874017715454</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.9978208541870109</v>
+        <v>2.122651159763334</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.706368923187252</v>
+        <v>-0.6034613586962226</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.51154860854149</v>
+        <v>2.880795598030089</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4366159439086914</v>
+        <v>-0.4280638098716736</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.386039733886719</v>
+        <v>-0.8827002644538879</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6339253783226013</v>
+        <v>0.5508477091789246</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.2441467046737658</v>
+        <v>-0.7601926326751736</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.069634318351747</v>
+        <v>2.327319413423542</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.925750926136973</v>
+        <v>5.726811170578007</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7061602473258972</v>
+        <v>0.1948660165071487</v>
       </c>
       <c r="G14" t="n">
-        <v>1.022435665130615</v>
+        <v>1.952783465385437</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9382890462875366</v>
+        <v>-2.956129550933838</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.612907171249393</v>
+        <v>4.228423535823836</v>
       </c>
       <c r="D15" t="n">
-        <v>-4.853008508682255</v>
+        <v>-2.42055988311769</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.383459806442257</v>
+        <v>5.180934607982632</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.432479023933411</v>
+        <v>2.541657686233521</v>
       </c>
       <c r="G15" t="n">
-        <v>0.08170322328805921</v>
+        <v>1.120479583740234</v>
       </c>
       <c r="H15" t="n">
-        <v>1.352913856506348</v>
+        <v>0.3246748745441437</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-1.189411103725463</v>
+        <v>2.933720350265484</v>
       </c>
       <c r="D16" t="n">
-        <v>-6.66196793317795</v>
+        <v>-5.437817335128782</v>
       </c>
       <c r="E16" t="n">
-        <v>2.149218022823342</v>
+        <v>5.24878549575806</v>
       </c>
       <c r="F16" t="n">
-        <v>-4.308279991149902</v>
+        <v>-3.313027620315552</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7483099102973938</v>
+        <v>2.173916578292847</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.4677700698375702</v>
+        <v>-4.959309577941895</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-6.306459784507723</v>
+        <v>-2.91136687994004</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.704558491706845</v>
+        <v>-3.510188579559316</v>
       </c>
       <c r="E17" t="n">
-        <v>4.024554014205929</v>
+        <v>5.247701197862618</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.983479499816894</v>
+        <v>0.2906191349029541</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1204931661486625</v>
+        <v>-1.299157619476318</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.231657028198242</v>
+        <v>1.514182209968567</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.663261890411397</v>
+        <v>-4.280053377151489</v>
       </c>
       <c r="D18" t="n">
-        <v>-5.016231019049863</v>
+        <v>-0.6633338928222658</v>
       </c>
       <c r="E18" t="n">
-        <v>3.32933139801026</v>
+        <v>4.682214915752411</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7951938509941101</v>
+        <v>1.71515691280365</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.842216849327088</v>
+        <v>0.9166033267974854</v>
       </c>
       <c r="H18" t="n">
-        <v>-2.083966732025146</v>
+        <v>0.9940304756164552</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6.837078571319559</v>
+        <v>-2.581492483615869</v>
       </c>
       <c r="D19" t="n">
-        <v>0.09169325232505482</v>
+        <v>0.5014263689517995</v>
       </c>
       <c r="E19" t="n">
-        <v>5.010437965393057</v>
+        <v>6.192452192306466</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8384125232696533</v>
+        <v>-1.992336988449097</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.687654256820679</v>
+        <v>-0.5707008838653564</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.451874017715454</v>
+        <v>0.5294674634933472</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2.122651159763334</v>
+        <v>-0.986172676086416</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.6034613586962226</v>
+        <v>1.025731801986666</v>
       </c>
       <c r="E20" t="n">
-        <v>2.880795598030089</v>
+        <v>-7.288565635681123</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.4280638098716736</v>
+        <v>-0.0847575515508651</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.8827002644538879</v>
+        <v>-0.578489363193512</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5508477091789246</v>
+        <v>2.060448408126831</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.7601926326751736</v>
+        <v>1.218793094158184</v>
       </c>
       <c r="D21" t="n">
-        <v>2.327319413423542</v>
+        <v>-5.294871598482164</v>
       </c>
       <c r="E21" t="n">
-        <v>5.726811170578007</v>
+        <v>-0.7042694091796555</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1948660165071487</v>
+        <v>1.970193147659302</v>
       </c>
       <c r="G21" t="n">
-        <v>1.952783465385437</v>
+        <v>-0.4350887835025787</v>
       </c>
       <c r="H21" t="n">
-        <v>-2.956129550933838</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>struggle</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>4.228423535823836</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-2.42055988311769</v>
-      </c>
-      <c r="E22" t="n">
-        <v>5.180934607982632</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2.541657686233521</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.120479583740234</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.3246748745441437</v>
+        <v>1.578170418739319</v>
       </c>
     </row>
   </sheetData>
